--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesExternos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesExternos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0765448B-34C4-4005-9990-20ACAB5D86A8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905CA6F-5C83-4228-A74A-20BE57554078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
   <si>
     <t>RuleSet</t>
   </si>
@@ -222,7 +222,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -248,26 +248,20 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AE25F0D0-D63C-46F7-BC9D-78FD79EA8971}"/>
+    <cellStyle name="Texto explicativo" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -527,7 +521,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -825,11 +819,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="33.33203125" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
@@ -884,7 +878,7 @@
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -913,7 +907,7 @@
       <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -927,16 +921,16 @@
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -948,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="C9" s="7">
-        <v>952</v>
+        <v>818</v>
       </c>
       <c r="D9" s="7">
         <v>999</v>
@@ -968,10 +962,10 @@
         <v>12</v>
       </c>
       <c r="C10" s="7">
-        <v>922</v>
+        <v>656</v>
       </c>
       <c r="D10" s="7">
-        <v>951</v>
+        <v>817</v>
       </c>
       <c r="E10" s="8">
         <v>2</v>
@@ -988,16 +982,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>859</v>
+        <v>468</v>
       </c>
       <c r="D11" s="7">
-        <v>921</v>
+        <v>655</v>
       </c>
       <c r="E11" s="8">
         <v>3</v>
       </c>
       <c r="F11" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1008,16 +1002,16 @@
         <v>12</v>
       </c>
       <c r="C12" s="7">
-        <v>723</v>
+        <v>231</v>
       </c>
       <c r="D12" s="7">
-        <v>858</v>
+        <v>467</v>
       </c>
       <c r="E12" s="8">
         <v>4</v>
       </c>
       <c r="F12" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1028,16 +1022,16 @@
         <v>12</v>
       </c>
       <c r="C13" s="7">
-        <v>555</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>722</v>
+        <v>230</v>
       </c>
       <c r="E13" s="8">
         <v>5</v>
       </c>
       <c r="F13" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1048,16 +1042,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="7">
-        <v>385</v>
+        <v>-1</v>
       </c>
       <c r="D14" s="7">
-        <v>554</v>
+        <v>-1</v>
       </c>
       <c r="E14" s="8">
         <v>6</v>
       </c>
       <c r="F14" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1068,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="C15" s="7">
-        <v>266</v>
+        <v>-1</v>
       </c>
       <c r="D15" s="7">
-        <v>384</v>
+        <v>-1</v>
       </c>
       <c r="E15" s="8">
         <v>7</v>
       </c>
       <c r="F15" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1088,16 +1082,16 @@
         <v>12</v>
       </c>
       <c r="C16" s="7">
-        <v>194</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="7">
-        <v>265</v>
+        <v>-1</v>
       </c>
       <c r="E16" s="8">
         <v>8</v>
       </c>
       <c r="F16" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
@@ -1108,10 +1102,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>164</v>
+        <v>-1</v>
       </c>
       <c r="D17" s="7">
-        <v>193</v>
+        <v>-1</v>
       </c>
       <c r="E17" s="8">
         <v>9</v>
@@ -1128,10 +1122,10 @@
         <v>12</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D18" s="7">
-        <v>163</v>
+        <v>-1</v>
       </c>
       <c r="E18" s="8">
         <v>10</v>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesExternos.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/PerfilClientesExternos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\quski-bre\Matrices\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\r06xd\Documents\Rogger\Relative\Bre Actual\QuskiBre\Matrices\Matrices v2\Produccion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0905CA6F-5C83-4228-A74A-20BE57554078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EF13A50-65CE-4D5A-B680-4E8921AC57C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="13560" windowHeight="9360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -233,9 +233,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -253,6 +250,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -820,7 +820,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -872,265 +872,265 @@
     </row>
     <row r="5" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="11"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>818</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="6">
         <v>999</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>1</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>656</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="6">
         <v>817</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>468</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>655</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>3</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>231</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>467</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>4</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>230</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>5</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>-1</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>-1</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>6</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>-1</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>-1</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>7</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="6">
         <v>-1</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>-1</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>8</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>-1</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>-1</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>9</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="26.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="6">
         <v>-1</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>-1</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>10</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <v>3</v>
       </c>
     </row>
